--- a/frontend/public/kazanim_sablon.xlsx
+++ b/frontend/public/kazanim_sablon.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,29 +406,25 @@
       <c r="A1" t="str">
         <v>kod</v>
       </c>
-      <c r="B1" t="str">
-        <v>aciklama</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1.1.1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Ucgenlerin temel ozellikleri</v>
+        <v>F.8.1.1.1. Mevsimlerin oluşumuna yönelik tahminlerde bulunur.</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1.1.2</v>
+        <v>F.8.4.1.1. Asit ve bazların genel özelliklerini ifade eder.</v>
       </c>
-      <c r="B3" t="str">
-        <v>Kenar-Aci iliskisi</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>F.8.4.1.2. Asit ve bazlara günlük yaşamdan örnekler verir.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>